--- a/CompetitionTaskMars/CompetitionTaskMars/ExcelData/signIn.xlsx
+++ b/CompetitionTaskMars/CompetitionTaskMars/ExcelData/signIn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarsCompetitionTask\Competition-Task\CompetitionTaskMars\CompetitionTaskMars\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1301D7D2-9BF3-435F-9E12-34157D948FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79404758-09FA-4E13-8C11-E26AF5ECF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" activeTab="1" xr2:uid="{0BFA499C-66FF-47C2-B57C-E1F99B53F91C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{0BFA499C-66FF-47C2-B57C-E1F99B53F91C}"/>
   </bookViews>
   <sheets>
     <sheet name="signIn" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>UserName</t>
   </si>
@@ -135,9 +135,6 @@
     <t>FinishTime</t>
   </si>
   <si>
-    <t>31/09/2022</t>
-  </si>
-  <si>
     <t>08:00am</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>10:00am</t>
+  </si>
+  <si>
+    <t>sathya@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB6C085-F710-4CFE-9475-F413C0BE33D7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,11 +562,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{75ADB51A-A17C-4878-A1CE-BD49A04ED59F}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{10DAFAF6-7666-41C2-8373-09649BDD0717}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{D3D97C91-D20E-48A7-B718-8D6A66F6BBCD}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{8F5E2FDD-B649-4254-87C1-0FE70C87FAC5}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{6AAB123B-82F9-4DE1-8651-806A9C8D5168}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{036CEF1E-3087-4D9C-B04D-DE8E6BE61027}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF75297-C12E-4939-B137-7853E28B0A21}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,8 +602,7 @@
     <col min="6" max="6" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.21875" customWidth="1"/>
     <col min="16" max="16" width="12.109375" customWidth="1"/>
     <col min="17" max="17" width="11.33203125" customWidth="1"/>
@@ -653,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -674,16 +687,16 @@
         <v>44798</v>
       </c>
       <c r="I2" s="4">
-        <v>44804</v>
+        <v>44824</v>
       </c>
       <c r="J2" s="4">
-        <v>44812</v>
+        <v>44833</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
@@ -722,7 +735,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,8 +743,7 @@
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -789,10 +801,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -801,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -810,19 +822,19 @@
         <v>11</v>
       </c>
       <c r="H2" s="4">
-        <v>44801</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>44824</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44825</v>
       </c>
       <c r="J2" s="4">
-        <v>44812</v>
+        <v>44854</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>

--- a/CompetitionTaskMars/CompetitionTaskMars/ExcelData/signIn.xlsx
+++ b/CompetitionTaskMars/CompetitionTaskMars/ExcelData/signIn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarsCompetitionTask\Competition-Task\CompetitionTaskMars\CompetitionTaskMars\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79404758-09FA-4E13-8C11-E26AF5ECF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB14E20-FB2F-4FD6-974A-4A3AF7340AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{0BFA499C-66FF-47C2-B57C-E1F99B53F91C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" activeTab="2" xr2:uid="{0BFA499C-66FF-47C2-B57C-E1F99B53F91C}"/>
   </bookViews>
   <sheets>
     <sheet name="signIn" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>discuss about testing</t>
   </si>
   <si>
-    <t>POM</t>
-  </si>
-  <si>
     <t>discuss about Pom</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>sathya@gmail.com</t>
+  </si>
+  <si>
+    <t>Page Object Model</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB6C085-F710-4CFE-9475-F413C0BE33D7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF75297-C12E-4939-B137-7853E28B0A21}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,19 +684,19 @@
         <v>11</v>
       </c>
       <c r="H2" s="4">
-        <v>44798</v>
+        <v>44872</v>
       </c>
       <c r="I2" s="4">
-        <v>44824</v>
+        <v>44872</v>
       </c>
       <c r="J2" s="4">
-        <v>44833</v>
+        <v>44926</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
@@ -734,12 +734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30B95E-F7FB-48D5-96B4-E85159D1BFE3}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
@@ -801,10 +802,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -813,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -822,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="H2" s="4">
-        <v>44824</v>
+        <v>44872</v>
       </c>
       <c r="I2" s="4">
-        <v>44825</v>
+        <v>44872</v>
       </c>
       <c r="J2" s="4">
-        <v>44854</v>
+        <v>44915</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
